--- a/domy.xlsx
+++ b/domy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,106 +444,341 @@
           <t>url</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rooms</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>surface_area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>price_per_sqm</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>floor</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>433</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>487 000 zł</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/dom-w-miejscowosci-zakret-ID4sh9R</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-z-lokalami-uslugowymi-ID4qdkd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ul. Armii Krajowej, Karczew, Karczew, otwocki, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6 pokoi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>250m²</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1948</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1948</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>423 675 zł</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-z-lokalami-uslugowymi-ID4qdkd</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/dom-ul-broniewskiego-05-500-piaseczno-ID4l7Px</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jazgarzew, Piaseczno, piaseczyński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6 pokoi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>190m²</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2230</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1948</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>588 300 zł</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-z-lokalami-uslugowymi-ID4qdkd</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/syndyk-sprzeda-1-2-udzialu-nieruchomosci-ID4so83</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wołomin, Wołomin, wołomiński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8 pokoi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205m²</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2870</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2230</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>605 000 zł</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/dom-ul-broniewskiego-05-500-piaseczno-ID4l7Px</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/dom-254m2-blisko-warszawy-605-000zl-1200m2-dzial-ID4p7R9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wiązowna Gminna, Wiązowna, otwocki, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6 pokoi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>200m²</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3025</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2230</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>680 000 zł</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/dom-ul-broniewskiego-05-500-piaseczno-ID4l7Px</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/dom-do-wlasnej-aranzacji-wolka-radzyminska-ID4sgDK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wólka Radzymińska, Nieporęt, legionowski, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5 pokoi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>187m²</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3636</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2870</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>450 750 zł</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/syndyk-sprzeda-1-2-udzialu-nieruchomosci-ID4so83</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/dom-jednorodzinny-20-km-od-warszawy-ID4rJHf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dziekanów Leśny, Łomianki, warszawski zachodni, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6 pokoi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>119.25m²</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2870</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>800 000 zł</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/syndyk-sprzeda-1-2-udzialu-nieruchomosci-ID4so83</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/dom-w-zabudowie-blizniaczej-ID4qpC1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ul. Złota, Wołomin, Wołomin, wołomiński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6 pokoi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>188.9m²</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4235</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2870</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>545 000 zł</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/syndyk-sprzeda-1-2-udzialu-nieruchomosci-ID4so83</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/murowany-dom-w-cenie-mieszkania-ID4s2Ga</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Legionowo, legionowski, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5 pokoi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>120m²</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4542</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2870</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>595 000 zł</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/syndyk-sprzeda-1-2-udzialu-nieruchomosci-ID4so83</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/dom-blizniak-125m2-oraz-dzialka-368m2-przy-pkp-ID4r5ow</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ząbki, wołomiński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6 pokoi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>125m²</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4760</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3025</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>600 000 zł</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/dom-254m2-blisko-warszawy-605-000zl-1200m2-dzial-ID4p7R9</t>
-        </is>
-      </c>
+          <t>https://www.otodom.pl/pl/oferta/jednopietrowy-dom-z-ogrodem-ID4l8y0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Duchnice, Ożarów Mazowiecki, warszawski zachodni, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3 pokoje</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.9m²</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6067</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
